--- a/biology/Zoologie/Ceratitida/Ceratitida.xlsx
+++ b/biology/Zoologie/Ceratitida/Ceratitida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceratitida, sont un ordre de la sous-classe des Ammonoidea (qui comprend également les goniatites et les ammonites) apparu au Permien.  Ce sont des mollusques céphalopodes marins. Ils ont connu leur plein développement au Trias, notamment au Trias moyen, après l'extinction des goniatites.
 Leurs coquilles s'en distinguent par la forme des lignes de sutures qui séparent leurs chambres : celles des goniatites sont en zigzag, alors que celles des cératites présentent des lobes simples (les "vraies" ammonites du Jurassique et du Crétacé présenteront des sutures beaucoup plus complexes, plurilobées, dites aussi "persillées").
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (27 décembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (27 décembre 2017) :
 super-famille Pinacocerataceae Mojsisovics, 1879 †
 famille Carnitidae Arthaber, 1911 †
 famille Gymnitidae Waagen, 1895 †
